--- a/stock_historical_data/1mo/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1mo/JIOFIN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,63 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B11" t="n">
+        <v>368</v>
+      </c>
+      <c r="C11" t="n">
+        <v>368</v>
+      </c>
+      <c r="D11" t="n">
+        <v>368</v>
+      </c>
+      <c r="E11" t="n">
+        <v>368</v>
+      </c>
+      <c r="F11" t="n">
+        <v>368</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1mo/JIOFIN.NS.xlsx
@@ -1085,7 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/JIOFIN.NS.xlsx
+++ b/stock_historical_data/1mo/JIOFIN.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B2" t="n">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="C2" t="n">
-        <v>266.9500122070312</v>
+        <v>262.0499877929688</v>
       </c>
       <c r="D2" t="n">
-        <v>224.75</v>
+        <v>202.8000030517578</v>
       </c>
       <c r="E2" t="n">
-        <v>231.1999969482422</v>
-      </c>
-      <c r="F2" t="n">
-        <v>231.1999969482422</v>
-      </c>
+        <v>233.5</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>793411283</v>
+        <v>720740010</v>
       </c>
       <c r="H2" t="n">
         <v>2023</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>35</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B3" t="n">
-        <v>231.5</v>
+        <v>235</v>
       </c>
       <c r="C3" t="n">
-        <v>233.8999938964844</v>
+        <v>266.9500122070312</v>
       </c>
       <c r="D3" t="n">
-        <v>204.25</v>
+        <v>224.75</v>
       </c>
       <c r="E3" t="n">
-        <v>219</v>
+        <v>231.1999969482422</v>
       </c>
       <c r="F3" t="n">
-        <v>219</v>
+        <v>231.1999969482422</v>
       </c>
       <c r="G3" t="n">
-        <v>349328643</v>
+        <v>793411283</v>
       </c>
       <c r="H3" t="n">
         <v>2023</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B4" t="n">
-        <v>216</v>
+        <v>231.5</v>
       </c>
       <c r="C4" t="n">
-        <v>232.3000030517578</v>
+        <v>233.8999938964844</v>
       </c>
       <c r="D4" t="n">
-        <v>213.8000030517578</v>
+        <v>204.25</v>
       </c>
       <c r="E4" t="n">
-        <v>229.3999938964844</v>
+        <v>219</v>
       </c>
       <c r="F4" t="n">
-        <v>229.3999938964844</v>
+        <v>219</v>
       </c>
       <c r="G4" t="n">
-        <v>374277225</v>
+        <v>349328643</v>
       </c>
       <c r="H4" t="n">
         <v>2023</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B5" t="n">
-        <v>231.4499969482422</v>
+        <v>216</v>
       </c>
       <c r="C5" t="n">
-        <v>251.6000061035156</v>
+        <v>232.3000030517578</v>
       </c>
       <c r="D5" t="n">
-        <v>224.8500061035156</v>
+        <v>213.8000030517578</v>
       </c>
       <c r="E5" t="n">
-        <v>232.9499969482422</v>
+        <v>229.3999938964844</v>
       </c>
       <c r="F5" t="n">
-        <v>232.9499969482422</v>
+        <v>229.3999938964844</v>
       </c>
       <c r="G5" t="n">
-        <v>411876453</v>
+        <v>374277225</v>
       </c>
       <c r="H5" t="n">
         <v>2023</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B6" t="n">
-        <v>233.3500061035156</v>
+        <v>231.4499969482422</v>
       </c>
       <c r="C6" t="n">
-        <v>269.7000122070312</v>
+        <v>251.6000061035156</v>
       </c>
       <c r="D6" t="n">
-        <v>232</v>
+        <v>224.8500061035156</v>
       </c>
       <c r="E6" t="n">
-        <v>248.25</v>
+        <v>232.9499969482422</v>
       </c>
       <c r="F6" t="n">
-        <v>248.25</v>
+        <v>232.9499969482422</v>
       </c>
       <c r="G6" t="n">
-        <v>533741332</v>
+        <v>411876453</v>
       </c>
       <c r="H6" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B7" t="n">
-        <v>251</v>
+        <v>233.3500061035156</v>
       </c>
       <c r="C7" t="n">
-        <v>348</v>
+        <v>269.7000122070312</v>
       </c>
       <c r="D7" t="n">
-        <v>249.1999969482422</v>
+        <v>232</v>
       </c>
       <c r="E7" t="n">
-        <v>310</v>
+        <v>248.25</v>
       </c>
       <c r="F7" t="n">
-        <v>310</v>
+        <v>248.25</v>
       </c>
       <c r="G7" t="n">
-        <v>1367562800</v>
+        <v>533741332</v>
       </c>
       <c r="H7" t="n">
         <v>2024</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B8" t="n">
-        <v>313.5</v>
+        <v>251</v>
       </c>
       <c r="C8" t="n">
-        <v>374.5</v>
+        <v>348</v>
       </c>
       <c r="D8" t="n">
-        <v>311.5499877929688</v>
+        <v>249.1999969482422</v>
       </c>
       <c r="E8" t="n">
-        <v>353.75</v>
+        <v>310</v>
       </c>
       <c r="F8" t="n">
-        <v>353.75</v>
+        <v>310</v>
       </c>
       <c r="G8" t="n">
-        <v>939218490</v>
+        <v>1367562800</v>
       </c>
       <c r="H8" t="n">
         <v>2024</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="n">
-        <v>357</v>
+        <v>313.5</v>
       </c>
       <c r="C9" t="n">
-        <v>394.7000122070312</v>
+        <v>374.5</v>
       </c>
       <c r="D9" t="n">
-        <v>351</v>
+        <v>311.5499877929688</v>
       </c>
       <c r="E9" t="n">
-        <v>377</v>
+        <v>353.75</v>
       </c>
       <c r="F9" t="n">
-        <v>377</v>
+        <v>353.75</v>
       </c>
       <c r="G9" t="n">
-        <v>643480400</v>
+        <v>939218490</v>
       </c>
       <c r="H9" t="n">
         <v>2024</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B10" t="n">
+        <v>357</v>
+      </c>
+      <c r="C10" t="n">
+        <v>394.7000122070312</v>
+      </c>
+      <c r="D10" t="n">
+        <v>351</v>
+      </c>
+      <c r="E10" t="n">
         <v>377</v>
       </c>
-      <c r="C10" t="n">
-        <v>385.8500061035156</v>
-      </c>
-      <c r="D10" t="n">
-        <v>335.3999938964844</v>
-      </c>
-      <c r="E10" t="n">
-        <v>344.3500061035156</v>
-      </c>
       <c r="F10" t="n">
-        <v>344.3500061035156</v>
+        <v>377</v>
       </c>
       <c r="G10" t="n">
-        <v>399566614</v>
+        <v>643480400</v>
       </c>
       <c r="H10" t="n">
         <v>2024</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,56 +995,514 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B11" t="n">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C11" t="n">
-        <v>368</v>
+        <v>385.8500061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>307.2999877929688</v>
+        <v>335.3999938964844</v>
       </c>
       <c r="E11" t="n">
-        <v>353.1499938964844</v>
+        <v>344.3500061035156</v>
       </c>
       <c r="F11" t="n">
-        <v>353.1499938964844</v>
+        <v>344.3500061035156</v>
       </c>
       <c r="G11" t="n">
-        <v>146955136</v>
+        <v>399566614</v>
       </c>
       <c r="H11" t="n">
         <v>2024</v>
       </c>
       <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>18</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B12" t="n">
+        <v>368</v>
+      </c>
+      <c r="C12" t="n">
+        <v>368</v>
+      </c>
+      <c r="D12" t="n">
+        <v>307.2999877929688</v>
+      </c>
+      <c r="E12" t="n">
+        <v>353.1499938964844</v>
+      </c>
+      <c r="F12" t="n">
+        <v>353.1499938964844</v>
+      </c>
+      <c r="G12" t="n">
+        <v>146955136</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I12" t="n">
         <v>6</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>22</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B13" t="n">
+        <v>358.1499938964844</v>
+      </c>
+      <c r="C13" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="D13" t="n">
+        <v>326</v>
+      </c>
+      <c r="E13" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>295290385</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>27</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B14" t="n">
+        <v>329</v>
+      </c>
+      <c r="C14" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D14" t="n">
+        <v>310</v>
+      </c>
+      <c r="E14" t="n">
+        <v>321.7000122070312</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>314730459</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>31</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B15" t="n">
+        <v>323.8999938964844</v>
+      </c>
+      <c r="C15" t="n">
+        <v>363</v>
+      </c>
+      <c r="D15" t="n">
+        <v>323.1499938964844</v>
+      </c>
+      <c r="E15" t="n">
+        <v>350.6000061035156</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>576221210</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>35</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B16" t="n">
+        <v>352</v>
+      </c>
+      <c r="C16" t="n">
+        <v>353</v>
+      </c>
+      <c r="D16" t="n">
+        <v>306</v>
+      </c>
+      <c r="E16" t="n">
+        <v>322.2999877929688</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>286377444</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>40</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B17" t="n">
+        <v>325</v>
+      </c>
+      <c r="C17" t="n">
+        <v>332.2999877929688</v>
+      </c>
+      <c r="D17" t="n">
+        <v>298</v>
+      </c>
+      <c r="E17" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>228420526</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>44</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B18" t="n">
+        <v>326</v>
+      </c>
+      <c r="C18" t="n">
+        <v>347.3500061035156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>298.7000122070312</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>286831824</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>48</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B19" t="n">
+        <v>298.8999938964844</v>
+      </c>
+      <c r="C19" t="n">
+        <v>310.8999938964844</v>
+      </c>
+      <c r="D19" t="n">
+        <v>231.0500030517578</v>
+      </c>
+      <c r="E19" t="n">
+        <v>241.6499938964844</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>467475166</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B20" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="C20" t="n">
+        <v>254.3399963378906</v>
+      </c>
+      <c r="D20" t="n">
+        <v>207</v>
+      </c>
+      <c r="E20" t="n">
+        <v>207.6100006103516</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>408524650</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B21" t="n">
+        <v>210</v>
+      </c>
+      <c r="C21" t="n">
+        <v>235.9400024414062</v>
+      </c>
+      <c r="D21" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="E21" t="n">
+        <v>227.5099945068359</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>715287870</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
